--- a/folder_with_orders/orders_format_russian_post.xlsx
+++ b/folder_with_orders/orders_format_russian_post.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t xml:space="preserve">ADDRESSLINE</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">Евгения Симоненко Симоненко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500.00</t>
   </si>
   <si>
     <t xml:space="preserve">+74957777777</t>
@@ -120,7 +123,7 @@
     <numFmt numFmtId="167" formatCode="0"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -141,11 +144,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,48 +193,48 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -259,276 +257,276 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="84.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="84.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="26.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>0.252</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="n">
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="n">
         <v>14577</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>101000</v>
-      </c>
-      <c r="I2" s="6"/>
+      <c r="H2" s="5" t="n">
+        <v>101000</v>
+      </c>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="8" t="n">
         <v>0.88</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="n">
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="n">
         <v>14578</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>101000</v>
-      </c>
-      <c r="I3" s="6"/>
+      <c r="H3" s="5" t="n">
+        <v>101000</v>
+      </c>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>0.326</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="n">
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="n">
         <v>14579</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>101000</v>
-      </c>
-      <c r="I4" s="6"/>
+      <c r="H4" s="5" t="n">
+        <v>101000</v>
+      </c>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>0.794</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="n">
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="n">
         <v>14580</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>101000</v>
-      </c>
-      <c r="I5" s="6"/>
+      <c r="H5" s="5" t="n">
+        <v>101000</v>
+      </c>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>0.318</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="n">
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="n">
         <v>14581</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>101000</v>
-      </c>
-      <c r="I6" s="6"/>
+      <c r="H6" s="5" t="n">
+        <v>101000</v>
+      </c>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>0.404</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="n">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5" t="n">
         <v>14582</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>101000</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>22</v>
+      <c r="H7" s="5" t="n">
+        <v>101000</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>14583</v>
+      </c>
+      <c r="G8" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>14583</v>
-      </c>
-      <c r="G8" s="5" t="n">
+      <c r="H8" s="5" t="n">
+        <v>101000</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>14584</v>
+      </c>
+      <c r="G9" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="H8" s="4" t="n">
-        <v>101000</v>
-      </c>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>0.536</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>14584</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>23</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>101000</v>
-      </c>
-      <c r="I9" s="6"/>
+      <c r="H9" s="5" t="n">
+        <v>101000</v>
+      </c>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/folder_with_orders/orders_format_russian_post.xlsx
+++ b/folder_with_orders/orders_format_russian_post.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t xml:space="preserve">ADDRESSLINE</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">Евгения Симоненко Симоненко</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1500.00</t>
   </si>
   <si>
     <t xml:space="preserve">+74957777777</t>
@@ -257,7 +254,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -437,10 +434,10 @@
       <c r="C7" s="4" t="n">
         <v>0.404</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="5" t="n">
         <v>14582</v>
       </c>
@@ -451,15 +448,15 @@
         <v>101000</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>0.416</v>
@@ -468,7 +465,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>14583</v>
@@ -483,10 +480,10 @@
     </row>
     <row r="9" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>0.536</v>
@@ -495,7 +492,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>14584</v>

--- a/folder_with_orders/orders_format_russian_post.xlsx
+++ b/folder_with_orders/orders_format_russian_post.xlsx
@@ -113,14 +113,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0"/>
-    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="General"/>
+    <numFmt numFmtId="168" formatCode="0"/>
+    <numFmt numFmtId="169" formatCode="0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -141,6 +142,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,7 +191,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -210,7 +216,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -218,7 +228,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -254,7 +264,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -313,16 +323,17 @@
         <v>11</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="5" t="n">
-        <v>14577</v>
-      </c>
-      <c r="G2" s="6" t="n">
+      <c r="F2" s="6" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>5254666</v>
+      </c>
+      <c r="G2" s="7" t="n">
         <v>4</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>101000</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -331,23 +342,24 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="9" t="n">
         <v>0.88</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="5" t="n">
-        <v>14578</v>
-      </c>
-      <c r="G3" s="6" t="n">
+      <c r="F3" s="6" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>7285879</v>
+      </c>
+      <c r="G3" s="7" t="n">
         <v>4</v>
       </c>
       <c r="H3" s="5" t="n">
         <v>101000</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -363,16 +375,17 @@
         <v>11</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="5" t="n">
-        <v>14579</v>
-      </c>
-      <c r="G4" s="6" t="n">
+      <c r="F4" s="6" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>6193619</v>
+      </c>
+      <c r="G4" s="7" t="n">
         <v>23</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>101000</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -388,16 +401,17 @@
         <v>11</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="5" t="n">
-        <v>14580</v>
-      </c>
-      <c r="G5" s="6" t="n">
+      <c r="F5" s="6" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>9277267</v>
+      </c>
+      <c r="G5" s="7" t="n">
         <v>23</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>101000</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -413,16 +427,17 @@
         <v>11</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="5" t="n">
-        <v>14581</v>
-      </c>
-      <c r="G6" s="6" t="n">
+      <c r="F6" s="6" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>1411943</v>
+      </c>
+      <c r="G6" s="7" t="n">
         <v>23</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>101000</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -438,16 +453,17 @@
         <v>11</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5" t="n">
-        <v>14582</v>
-      </c>
-      <c r="G7" s="6" t="n">
+      <c r="F7" s="6" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>6597148</v>
+      </c>
+      <c r="G7" s="7" t="n">
         <v>24</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>101000</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -467,16 +483,17 @@
       <c r="E8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="5" t="n">
-        <v>14583</v>
-      </c>
-      <c r="G8" s="6" t="n">
+      <c r="F8" s="6" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>2568690</v>
+      </c>
+      <c r="G8" s="7" t="n">
         <v>23</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>101000</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -494,16 +511,17 @@
       <c r="E9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="5" t="n">
-        <v>14584</v>
-      </c>
-      <c r="G9" s="6" t="n">
+      <c r="F9" s="6" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>3156258</v>
+      </c>
+      <c r="G9" s="7" t="n">
         <v>23</v>
       </c>
       <c r="H9" s="5" t="n">
         <v>101000</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="5"/>
@@ -517,13 +535,13 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/folder_with_orders/orders_format_russian_post.xlsx
+++ b/folder_with_orders/orders_format_russian_post.xlsx
@@ -121,7 +121,7 @@
     <numFmt numFmtId="168" formatCode="0"/>
     <numFmt numFmtId="169" formatCode="0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -145,6 +145,18 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -191,57 +203,61 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -264,284 +280,284 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="84.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="26.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="84.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="3" t="n">
         <v>0.252</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
-        <v>5254666</v>
-      </c>
-      <c r="G2" s="7" t="n">
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>8100499</v>
+      </c>
+      <c r="G2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>101000</v>
-      </c>
-      <c r="I2" s="8"/>
+      <c r="H2" s="4" t="n">
+        <v>101000</v>
+      </c>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="8" t="n">
         <v>0.88</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
-        <v>7285879</v>
-      </c>
-      <c r="G3" s="7" t="n">
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="9" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>3960504</v>
+      </c>
+      <c r="G3" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <v>101000</v>
-      </c>
-      <c r="I3" s="8"/>
+      <c r="H3" s="4" t="n">
+        <v>101000</v>
+      </c>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="3" t="n">
         <v>0.326</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
-        <v>6193619</v>
-      </c>
-      <c r="G4" s="7" t="n">
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="9" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>6774392</v>
+      </c>
+      <c r="G4" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <v>101000</v>
-      </c>
-      <c r="I4" s="8"/>
+      <c r="H4" s="4" t="n">
+        <v>101000</v>
+      </c>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="3" t="n">
         <v>0.794</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
-        <v>9277267</v>
-      </c>
-      <c r="G5" s="7" t="n">
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="9" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>8732479</v>
+      </c>
+      <c r="G5" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>101000</v>
-      </c>
-      <c r="I5" s="8"/>
+      <c r="H5" s="4" t="n">
+        <v>101000</v>
+      </c>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="3" t="n">
         <v>0.318</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
-        <v>1411943</v>
-      </c>
-      <c r="G6" s="7" t="n">
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="9" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>6827222</v>
+      </c>
+      <c r="G6" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <v>101000</v>
-      </c>
-      <c r="I6" s="8"/>
+      <c r="H6" s="4" t="n">
+        <v>101000</v>
+      </c>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="3" t="n">
         <v>0.404</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
-        <v>6597148</v>
-      </c>
-      <c r="G7" s="7" t="n">
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="9" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>5041206</v>
+      </c>
+      <c r="G7" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>101000</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="H7" s="4" t="n">
+        <v>101000</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="3" t="n">
         <v>0.416</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="6" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
-        <v>2568690</v>
-      </c>
-      <c r="G8" s="7" t="n">
+      <c r="F8" s="9" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>7660797</v>
+      </c>
+      <c r="G8" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="4" t="n">
         <v>101000</v>
       </c>
       <c r="I8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="3" t="n">
         <v>0.536</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="6" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
-        <v>3156258</v>
-      </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="9" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>8998158</v>
+      </c>
+      <c r="G9" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <v>101000</v>
-      </c>
-      <c r="I9" s="8"/>
+      <c r="H9" s="4" t="n">
+        <v>101000</v>
+      </c>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/folder_with_orders/orders_format_russian_post.xlsx
+++ b/folder_with_orders/orders_format_russian_post.xlsx
@@ -121,7 +121,7 @@
     <numFmt numFmtId="168" formatCode="0"/>
     <numFmt numFmtId="169" formatCode="0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -154,11 +154,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,61 +199,53 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -280,284 +268,264 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="84.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="84.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="26.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>0.252</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
-        <v>8100499</v>
-      </c>
-      <c r="G2" s="6" t="n">
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>8067631</v>
+      </c>
+      <c r="G2" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>101000</v>
-      </c>
-      <c r="I2" s="7"/>
+      <c r="H2" s="5" t="n">
+        <v>101000</v>
+      </c>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="9" t="n">
         <v>0.88</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="9" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
-        <v>3960504</v>
-      </c>
-      <c r="G3" s="6" t="n">
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>7089125</v>
+      </c>
+      <c r="G3" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>101000</v>
-      </c>
-      <c r="I3" s="7"/>
+      <c r="H3" s="5" t="n">
+        <v>101000</v>
+      </c>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>0.326</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="9" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
-        <v>6774392</v>
-      </c>
-      <c r="G4" s="6" t="n">
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>4322982</v>
+      </c>
+      <c r="G4" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>101000</v>
-      </c>
-      <c r="I4" s="7"/>
+      <c r="H4" s="5" t="n">
+        <v>101000</v>
+      </c>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>0.794</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="9" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
-        <v>8732479</v>
-      </c>
-      <c r="G5" s="6" t="n">
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>2543521</v>
+      </c>
+      <c r="G5" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>101000</v>
-      </c>
-      <c r="I5" s="7"/>
+      <c r="H5" s="5" t="n">
+        <v>101000</v>
+      </c>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>0.318</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="9" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
-        <v>6827222</v>
-      </c>
-      <c r="G6" s="6" t="n">
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>8240259</v>
+      </c>
+      <c r="G6" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>101000</v>
-      </c>
-      <c r="I6" s="7"/>
+      <c r="H6" s="5" t="n">
+        <v>101000</v>
+      </c>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>0.404</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="9" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
-        <v>5041206</v>
-      </c>
-      <c r="G7" s="6" t="n">
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>7765028</v>
+      </c>
+      <c r="G7" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>101000</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="H7" s="5" t="n">
+        <v>101000</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>0.416</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="9" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
-        <v>7660797</v>
-      </c>
-      <c r="G8" s="6" t="n">
+      <c r="F8" s="10" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>5048137</v>
+      </c>
+      <c r="G8" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="H8" s="4" t="n">
-        <v>101000</v>
-      </c>
-      <c r="I8" s="10"/>
+      <c r="H8" s="5" t="n">
+        <v>101000</v>
+      </c>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>0.536</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="9" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
-        <v>8998158</v>
-      </c>
-      <c r="G9" s="6" t="n">
+      <c r="F9" s="10" t="n">
+        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <v>6610758</v>
+      </c>
+      <c r="G9" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>101000</v>
-      </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="13"/>
+      <c r="H9" s="5" t="n">
+        <v>101000</v>
+      </c>
+      <c r="I9" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
